--- a/biology/Médecine/Sillon_précentral/Sillon_précentral.xlsx
+++ b/biology/Médecine/Sillon_précentral/Sillon_précentral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_pr%C3%A9central</t>
+          <t>Sillon_précentral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon précentral est un sillon parcourant le lobe frontal de la face latérale du cerveau, en avant et parallèlement au sillon central (ou scissure de Rolando, dans l'ancienne terminologie).
 Entre lui et le sillon central se trouve le gyrus précentral. Il assure aussi la frontière entre le gyrus central et d'autre part les gyrus frontaux supérieur, moyen et inférieur.
